--- a/Model_Results/SVM/Result_SVM_global.xlsx
+++ b/Model_Results/SVM/Result_SVM_global.xlsx
@@ -472,21 +472,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.85714285714286</v>
+        <v>74.41666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>86.22448979591836</v>
+        <v>74.82552934298489</v>
       </c>
       <c r="D2" t="n">
-        <v>92.85714285714286</v>
+        <v>74.41666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>89.41798941798943</v>
+        <v>74.3108953461858</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3153210425937699</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.7928402777777778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50.16666666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
